--- a/Dog Digger/Report_3189.xlsx
+++ b/Dog Digger/Report_3189.xlsx
@@ -1,37 +1,78 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\C#\Dog Digger\Dog Digger\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC5CD93-CA4C-4CF6-BE35-2F66E669ADD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="36750" yWindow="510" windowWidth="20400" windowHeight="14970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>營收</t>
+  </si>
+  <si>
+    <t>毛利</t>
+  </si>
+  <si>
+    <t>銷售費用</t>
+  </si>
+  <si>
+    <t>管理費用</t>
+  </si>
+  <si>
+    <t>研發費用</t>
+  </si>
+  <si>
+    <t>營業總支出</t>
+  </si>
+  <si>
+    <t>主業損益</t>
+  </si>
+  <si>
+    <t>稅後淨利</t>
+  </si>
+  <si>
+    <t>業外損益</t>
+  </si>
+  <si>
+    <t>EPS</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,94 +87,3708 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>毛利</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>286861</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>475218</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>789981</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1208679</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1051617</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1517031</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1435581</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1814825</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1598205</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2364625</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3221739</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3341276</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3522280</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4249263</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4497867</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3598905</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1601064</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1480509</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1365338</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2311784</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F256-402B-A616-76312B8387F3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="203414687"/>
+        <c:axId val="206687599"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="203414687"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="206687599"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="206687599"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="203414687"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>業外損益</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$2:$I$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>-120796</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-77069</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-60147</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-39031</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-6680</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-90237</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-97343</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-216876</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-64906</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-73014</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-119418</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-255120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-353167</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-434769</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-476820</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-765359</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-108220</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>104728</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>47766</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-4656</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DEA5-4CA7-84CA-1C4BC513DE50}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="208500223"/>
+        <c:axId val="199416655"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="208500223"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="199416655"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="199416655"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="208500223"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>研發費用</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>-456133</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-488347</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-464196</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-516308</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-505868</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-574870</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-610888</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-636520</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-595048</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-632221</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-612118</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-656301</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-581924</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-592864</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-657726</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-649193</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-585900</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-552312</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-599020</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-658813</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4F57-44C3-ABAB-5C9980D17F5B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="208019823"/>
+        <c:axId val="121864703"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="208019823"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="121864703"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="121864703"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="208019823"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EPS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$2:$J$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>-1.67</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.62</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.89</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.07</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.02</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.39</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.6500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.79</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.63</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.76</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D989-4FA7-ACAD-845CD5C98E4F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="310831055"/>
+        <c:axId val="205552335"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="310831055"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="205552335"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="205552335"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="310831055"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{993186B7-D57D-44B1-878D-859457D1A3D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="圖表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F0CFA4D-9CDF-1C45-3DDA-9537E1DE33A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="圖表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BFE791C-EE0C-32A6-CC92-0B9D9FD72549}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="圖表 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FBBB684-47DB-D973-892C-00EF1551E90B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -420,712 +4075,689 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>營收</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>毛利</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>銷售費用</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>管理費用</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>研發費用</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>營業總支出</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>主業損益</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>稅後淨利</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>業外損益</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>EPS</t>
-        </is>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>4919071</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>286861</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>-171809</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>-296843</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>-456133</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>-915241</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>-628380</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>-749176</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>-120796</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>-1.67</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>5174646</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>475218</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>-627844</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>-298656</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>-488347</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>-1419995</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>-944777</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>-1021846</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>-77069</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>-2.25</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>5997496</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>789981</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>-197329</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>-320146</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>-464196</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>-988635</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>-198654</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>-258801</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>-60147</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>-0.62</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>6236197</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>1208679</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>-204146</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>-373595</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>-516308</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>-1087093</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>121586</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>82555</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>-39031</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>0.01</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>5892333</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>1051617</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>-167223</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>-293308</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>-505868</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>-966002</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>85615</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>78935</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>-6680</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>0.18</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>6786185</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>1517031</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>-216997</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>-301697</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>-574870</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>-1091815</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>425216</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>334979</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>-90237</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>0.52</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>6871934</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>1435581</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>-197074</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>-331519</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>-610888</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>-1153577</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>282004</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>184661</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>-97343</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8">
         <v>0.13</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>7548022</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>1814825</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>-286039</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>-362616</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>-636520</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>-1267081</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>547744</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>330868</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>-216876</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9">
         <v>0.38</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>7225986</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>1598205</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>-226733</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>-327488</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>-595048</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>-1160691</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>437514</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>372608</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10">
         <v>-64906</v>
       </c>
-      <c r="J10" t="n">
-        <v>0.57</v>
+      <c r="J10">
+        <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>8725355</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>2364625</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>-238025</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>-408311</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>-632221</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>-1278865</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>1085760</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>1012746</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11">
         <v>-73014</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11">
         <v>1.89</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>9767683</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>3221739</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>-240318</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>-676470</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>-612118</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>-1530403</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>1691336</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
         <v>1571918</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I12">
         <v>-119418</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J12">
         <v>3.07</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>9953739</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>3341276</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>-258307</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>-643104</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>-656301</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>-1551320</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>1789956</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13">
         <v>1534836</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13">
         <v>-255120</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J13">
         <v>3.02</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>10014259</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>3522280</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>-233241</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>-636357</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>-581924</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>-1447986</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>2074294</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14">
         <v>1721127</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I14">
         <v>-353167</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J14">
         <v>3.39</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>11453611</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>4249263</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>-235882</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>-684082</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>-592864</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>-1519576</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>2729687</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15">
         <v>2294918</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I15">
         <v>-434769</v>
       </c>
-      <c r="J15" t="n">
-        <v>4.65</v>
+      <c r="J15">
+        <v>4.6500000000000004</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>11544421</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>4497867</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>-230408</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>-694274</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>-657726</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>-1579780</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>2918087</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16">
         <v>2441267</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I16">
         <v>-476820</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J16">
         <v>4.79</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>8614195</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>3598905</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>-218256</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>-484984</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>-649193</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>-1357388</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>2241517</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17">
         <v>1476158</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I17">
         <v>-765359</v>
       </c>
-      <c r="J17" t="n">
+      <c r="J17">
         <v>2.63</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>6834744</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>1601064</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>-192707</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>-508209</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>-585900</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>-1275940</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>325124</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18">
         <v>216904</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I18">
         <v>-108220</v>
       </c>
-      <c r="J18" t="n">
+      <c r="J18">
         <v>0.02</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>6462205</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>1480509</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>-207080</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>-546712</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>-552312</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>-1319478</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>161031</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19">
         <v>265759</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I19">
         <v>104728</v>
       </c>
-      <c r="J19" t="n">
+      <c r="J19">
         <v>0.04</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>6046171</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>1365338</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>-202050</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>-687528</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>-599020</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>-1505404</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>-140066</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20">
         <v>-92300</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I20">
         <v>47766</v>
       </c>
-      <c r="J20" t="n">
+      <c r="J20">
         <v>-0.76</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>7489463</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>2311784</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>-240570</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>-626409</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>-658813</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>-1527089</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>784695</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21">
         <v>780039</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I21">
         <v>-4656</v>
       </c>
-      <c r="J21" t="n">
+      <c r="J21">
         <v>0.8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>